--- a/VehiclesStopList.xlsx
+++ b/VehiclesStopList.xlsx
@@ -379,6 +379,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -408,10 +420,10 @@
         <v>ТАВ ИТ</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="E2" t="str">
-        <v>2018-06-18T00:00:00</v>
+        <v>18-05-2018</v>
       </c>
     </row>
     <row r="3">
@@ -428,7 +440,7 @@
         <v>123</v>
       </c>
       <c r="E3" t="str">
-        <v>2018-05-11T00:00:00</v>
+        <v>11-05-2018</v>
       </c>
     </row>
     <row r="4">
@@ -445,7 +457,7 @@
         <v>321</v>
       </c>
       <c r="E4" t="str">
-        <v>2018-06-24T00:00:00</v>
+        <v>24-06-2018</v>
       </c>
     </row>
   </sheetData>
